--- a/public/PAYSLIPS/October-2014-bank_statement.xlsx
+++ b/public/PAYSLIPS/October-2014-bank_statement.xlsx
@@ -75,7 +75,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.18988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.38988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.489887640449439"/>
   </cols>
   <sheetData>
@@ -125,7 +125,7 @@
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>870146000000.0</v>
+        <v>8701.46</v>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>

--- a/public/PAYSLIPS/October-2014-bank_statement.xlsx
+++ b/public/PAYSLIPS/October-2014-bank_statement.xlsx
@@ -67,15 +67,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.18988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.489887640449439"/>
   </cols>
   <sheetData>
@@ -102,14 +102,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
+      <c r="A2" s="0" t="n">
+        <v>17249172304</v>
+      </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
           <t>Sekhar Beri</t>
         </is>
       </c>
       <c r="C2" s="0" t="n">
-        <v>725.123</v>
+        <v>1304.86</v>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
@@ -118,16 +120,56 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>awetwetawe</t>
+        </is>
+      </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
           <t>BalaRaju Vankala</t>
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>8701.46</v>
+        <v>1449.85</v>
       </c>
       <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Priyanka Muddana</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>17057.4</v>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>esryeryesry</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Brathathi  Arora</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3142130.0</v>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>October</t>
         </is>

--- a/public/PAYSLIPS/October-2014-bank_statement.xlsx
+++ b/public/PAYSLIPS/October-2014-bank_statement.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -75,7 +75,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.18988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.489887640449439"/>
   </cols>
   <sheetData>
@@ -155,26 +155,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>esryeryesry</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>Brathathi  Arora</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3142130.0</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
